--- a/Labs/Lab06/Topological Gateways.xlsx
+++ b/Labs/Lab06/Topological Gateways.xlsx
@@ -226,7 +226,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -239,20 +238,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +569,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,93 +579,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="C2" s="9">
+        <v>23.4</v>
+      </c>
+      <c r="D2" s="9">
+        <v>22.7</v>
+      </c>
+      <c r="E2" s="10">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="11">
+        <v>7.8</v>
+      </c>
+      <c r="C3" s="11">
+        <v>10.3</v>
+      </c>
+      <c r="D3" s="11">
+        <v>50</v>
+      </c>
+      <c r="E3" s="12">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="7"/>
+      <c r="B4" s="9">
+        <v>7.8</v>
+      </c>
+      <c r="C4" s="9">
+        <v>50</v>
+      </c>
+      <c r="D4" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="E4" s="10">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
+      <c r="B5" s="11">
+        <v>50</v>
+      </c>
+      <c r="C5" s="11">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D5" s="11">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E5" s="12">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
+      <c r="B6" s="9">
+        <v>50</v>
+      </c>
+      <c r="C6" s="9">
+        <v>50</v>
+      </c>
+      <c r="D6" s="9">
+        <v>10.1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
+      <c r="B7" s="11">
+        <v>50</v>
+      </c>
+      <c r="C7" s="11">
+        <v>10.4</v>
+      </c>
+      <c r="D7" s="11">
+        <v>50</v>
+      </c>
+      <c r="E7" s="12">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="9">
+        <v>8.1</v>
+      </c>
+      <c r="C8" s="9">
+        <v>50</v>
+      </c>
+      <c r="D8" s="9">
+        <v>50</v>
+      </c>
+      <c r="E8" s="10">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
+      <c r="B9" s="13">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C9" s="13">
+        <v>10.8</v>
+      </c>
+      <c r="D9" s="13">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E9" s="14">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
